--- a/src/test/java/cucumber/Feature.xlsx
+++ b/src/test/java/cucumber/Feature.xlsx
@@ -3,20 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="60" windowWidth="22930" windowHeight="9500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10660" windowHeight="3250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A10:H18"/>
 </workbook>
 </file>
 
@@ -437,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -534,28 +528,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>